--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67346.91829930984</v>
+        <v>-67318.42577946701</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30062971.78277535</v>
+        <v>30118165.63450719</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20368936.45202664</v>
+        <v>20365854.83460855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>760610.3632466143</v>
+        <v>759446.9824238491</v>
       </c>
     </row>
     <row r="11">
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>16.40254192821721</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>16.25486629370368</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>14.10849161526705</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>10.50014909015127</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>9.912735448118685</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>11.54918363067664</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>15.52000409925878</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>19.56201948156689</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>25.39827700991628</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>13.34699725816536</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>12.85802961440214</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>9.147977155514765</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>4.697136804258392</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>2.304073385794617</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>3.647188605845983</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>6.10054723088008</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>12.27186175772305</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>18.57786033090706</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>15.772719788292</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>12.97154881044711</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>11.69033660355724</v>
       </c>
       <c r="M46" t="n">
-        <v>22.57543989148582</v>
+        <v>11.79100166068977</v>
       </c>
       <c r="N46" t="n">
-        <v>20.74890097560039</v>
+        <v>10.22089258152801</v>
       </c>
       <c r="O46" t="n">
-        <v>22.49918749842445</v>
+        <v>12.77486773896165</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>14.05996517561621</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>18.85864757926836</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1422978921927</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>293.3189543461853</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>28.63495548576847</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>99.82861357029707</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>218.04492102372</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7590903980116</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25956,10 +25958,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>93.11323406457203</v>
+        <v>93.03117179652894</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>52.04978355868677</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>78.98673432768035</v>
       </c>
       <c r="T45" t="n">
-        <v>140.4611363452985</v>
+        <v>140.1303678175283</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9151152861358</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -26035,13 +26037,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5256017598331</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>141.7466268305473</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>96.70193160180501</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>43.47480773473441</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>167.2347311597167</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>240.611998142066</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3788513829418</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>65778.9740615059</v>
+        <v>63764.37489113039</v>
       </c>
     </row>
   </sheetData>
@@ -26320,10 +26322,10 @@
         <v>9817.757322612817</v>
       </c>
       <c r="E2" t="n">
-        <v>9817.757322612815</v>
+        <v>9817.757322612817</v>
       </c>
       <c r="F2" t="n">
-        <v>9817.757322612815</v>
+        <v>9817.757322612817</v>
       </c>
       <c r="G2" t="n">
         <v>9817.757322612815</v>
@@ -26332,10 +26334,10 @@
         <v>9817.757322612815</v>
       </c>
       <c r="I2" t="n">
-        <v>9817.757322612815</v>
+        <v>9817.757322612817</v>
       </c>
       <c r="J2" t="n">
-        <v>9817.757322612815</v>
+        <v>9817.757322612817</v>
       </c>
       <c r="K2" t="n">
         <v>9817.757322612817</v>
@@ -26350,10 +26352,10 @@
         <v>9817.757322612817</v>
       </c>
       <c r="O2" t="n">
-        <v>9817.757322612815</v>
+        <v>9817.757322612813</v>
       </c>
       <c r="P2" t="n">
-        <v>9817.757322612817</v>
+        <v>10125.91906442168</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>25392.89328155884</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="C4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="D4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="E4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="F4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="G4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="H4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="I4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="J4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="K4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="L4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="M4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="N4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="O4" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="P4" t="n">
-        <v>6872.430125828972</v>
+        <v>3008.860504600309</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>831.7082850613344</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-30682.27280321615</v>
       </c>
       <c r="E6" t="n">
-        <v>2945.327196783843</v>
+        <v>2945.327196783844</v>
       </c>
       <c r="F6" t="n">
-        <v>2945.327196783843</v>
+        <v>2945.327196783844</v>
       </c>
       <c r="G6" t="n">
-        <v>2945.327196783843</v>
+        <v>2945.327196783842</v>
       </c>
       <c r="H6" t="n">
-        <v>2945.327196783843</v>
+        <v>2945.327196783842</v>
       </c>
       <c r="I6" t="n">
-        <v>2945.327196783843</v>
+        <v>2945.327196783844</v>
       </c>
       <c r="J6" t="n">
-        <v>2945.327196783843</v>
+        <v>2945.327196783844</v>
       </c>
       <c r="K6" t="n">
-        <v>2945.327196783845</v>
+        <v>2945.327196783844</v>
       </c>
       <c r="L6" t="n">
-        <v>2945.327196783845</v>
+        <v>2945.327196783844</v>
       </c>
       <c r="M6" t="n">
-        <v>2945.327196783845</v>
+        <v>2945.327196783844</v>
       </c>
       <c r="N6" t="n">
-        <v>2945.327196783845</v>
+        <v>2945.327196783844</v>
       </c>
       <c r="O6" t="n">
-        <v>2945.327196783843</v>
+        <v>2945.32719678384</v>
       </c>
       <c r="P6" t="n">
-        <v>2945.327196783845</v>
+        <v>-19107.5430067988</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>38.15175619547406</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>38.15175619547406</v>
       </c>
     </row>
     <row r="4">
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.1533738942531619</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.570740394520195</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5.912947058195032</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>13.01741755736932</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>19.50973450110566</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>24.20355081735588</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>26.93111380928054</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>27.36688738632734</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>25.84177572534746</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>22.05535771097252</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>16.56265512303115</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>9.634372884880191</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>3.495007615293931</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.6713942220932166</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.01226991154025295</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.08206226804309516</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.7925487466267348</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.825389491834636</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>7.753084718931198</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>13.25125667781857</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>17.81794990997117</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>20.79270712653336</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>19.52470111637624</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>15.67029397394858</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>10.47517653125544</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>5.095059063237085</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.524270636677666</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.3307685277701948</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.005398833423887841</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.06879824887708436</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.611678976379896</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.068950975321774</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.864036195609865</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>7.993105642264891</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>10.22842329214398</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>10.78443823079605</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>10.52800839407238</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>9.724319759462801</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>8.320835482370274</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>5.760915185516583</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.093419444964175</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.198965846339733</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.2939561542929968</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.003752631756931878</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67318.42577946701</v>
+        <v>-78708.28664093409</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30118165.63450719</v>
+        <v>30062971.78277535</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20365854.83460855</v>
+        <v>20368936.45202664</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>759446.9824238491</v>
+        <v>760610.3632466143</v>
       </c>
     </row>
     <row r="11">
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>16.40254192821721</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>16.25486629370368</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>14.10849161526705</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>10.50014909015127</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>9.912735448118685</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>11.54918363067664</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>15.52000409925878</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>19.56201948156689</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>25.39827700991628</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>13.34699725816536</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>12.85802961440214</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>9.147977155514765</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>4.697136804258392</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>2.304073385794617</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>3.647188605845983</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>6.10054723088008</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.27186175772305</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>18.57786033090706</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>15.772719788292</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K46" t="n">
-        <v>12.97154881044711</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L46" t="n">
-        <v>11.69033660355724</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M46" t="n">
-        <v>11.79100166068977</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N46" t="n">
-        <v>10.22089258152801</v>
+        <v>20.74890097560039</v>
       </c>
       <c r="O46" t="n">
-        <v>12.77486773896165</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P46" t="n">
-        <v>14.05996517561621</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.85864757926836</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.1422978921927</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>293.3189543461853</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>28.63495548576847</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>99.82861357029707</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.04492102372</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7590903980116</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25958,10 +25958,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>93.03117179652894</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>52.04978355868677</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>78.98673432768035</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
-        <v>140.1303678175283</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9151152861358</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -26037,13 +26037,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5256017598331</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>141.7466268305473</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>96.70193160180501</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>43.47480773473441</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>167.2347311597167</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.611998142066</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3788513829418</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>63764.37489113039</v>
+        <v>65778.9740615059</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9817.757322612817</v>
+        <v>9817.757322612819</v>
       </c>
       <c r="C2" t="n">
-        <v>9817.757322612817</v>
+        <v>9817.757322612815</v>
       </c>
       <c r="D2" t="n">
         <v>9817.757322612817</v>
@@ -26328,10 +26328,10 @@
         <v>9817.757322612817</v>
       </c>
       <c r="G2" t="n">
-        <v>9817.757322612815</v>
+        <v>9817.757322612817</v>
       </c>
       <c r="H2" t="n">
-        <v>9817.757322612815</v>
+        <v>9817.757322612817</v>
       </c>
       <c r="I2" t="n">
         <v>9817.757322612817</v>
@@ -26340,7 +26340,7 @@
         <v>9817.757322612817</v>
       </c>
       <c r="K2" t="n">
-        <v>9817.757322612817</v>
+        <v>9817.757322612815</v>
       </c>
       <c r="L2" t="n">
         <v>9817.757322612817</v>
@@ -26352,10 +26352,10 @@
         <v>9817.757322612817</v>
       </c>
       <c r="O2" t="n">
-        <v>9817.757322612813</v>
+        <v>9817.757322612819</v>
       </c>
       <c r="P2" t="n">
-        <v>10125.91906442168</v>
+        <v>9817.757322612817</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>25392.89328155884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="C4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="D4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="E4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="F4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="G4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="H4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="I4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="J4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="K4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="L4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="M4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="N4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="O4" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="P4" t="n">
-        <v>3008.860504600309</v>
+        <v>6872.430125828972</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>831.7082850613344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30682.27280321615</v>
+        <v>-32040.20190001794</v>
       </c>
       <c r="C6" t="n">
-        <v>-30682.27280321615</v>
+        <v>-32040.20190001794</v>
       </c>
       <c r="D6" t="n">
-        <v>-30682.27280321615</v>
+        <v>-32040.20190001794</v>
       </c>
       <c r="E6" t="n">
-        <v>2945.327196783844</v>
+        <v>1587.398099982065</v>
       </c>
       <c r="F6" t="n">
-        <v>2945.327196783844</v>
+        <v>1587.398099982065</v>
       </c>
       <c r="G6" t="n">
-        <v>2945.327196783842</v>
+        <v>1587.398099982065</v>
       </c>
       <c r="H6" t="n">
-        <v>2945.327196783842</v>
+        <v>1587.398099982065</v>
       </c>
       <c r="I6" t="n">
-        <v>2945.327196783844</v>
+        <v>1587.398099982065</v>
       </c>
       <c r="J6" t="n">
-        <v>2945.327196783844</v>
+        <v>1587.398099982065</v>
       </c>
       <c r="K6" t="n">
-        <v>2945.327196783844</v>
+        <v>1587.398099982063</v>
       </c>
       <c r="L6" t="n">
-        <v>2945.327196783844</v>
+        <v>1587.398099982065</v>
       </c>
       <c r="M6" t="n">
-        <v>2945.327196783844</v>
+        <v>1587.398099982065</v>
       </c>
       <c r="N6" t="n">
-        <v>2945.327196783844</v>
+        <v>1587.398099982065</v>
       </c>
       <c r="O6" t="n">
-        <v>2945.32719678384</v>
+        <v>1587.398099982067</v>
       </c>
       <c r="P6" t="n">
-        <v>-19107.5430067988</v>
+        <v>1587.398099982065</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>38.15175619547406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>38.15175619547406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1533738942531619</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.570740394520195</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>5.912947058195032</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>13.01741755736932</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>19.50973450110566</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>24.20355081735588</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>26.93111380928054</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>27.36688738632734</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>25.84177572534746</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>22.05535771097252</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>16.56265512303115</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>9.634372884880191</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.495007615293931</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6713942220932166</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01226991154025295</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08206226804309516</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7925487466267348</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.825389491834636</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>7.753084718931198</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>13.25125667781857</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>17.81794990997117</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>20.79270712653336</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>19.52470111637624</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>15.67029397394858</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>10.47517653125544</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>5.095059063237085</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1.524270636677666</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3307685277701948</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.005398833423887841</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06879824887708436</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.611678976379896</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.068950975321774</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.864036195609865</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.993105642264891</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>10.22842329214398</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>10.78443823079605</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>10.52800839407238</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>9.724319759462801</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>8.320835482370274</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.760915185516583</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>3.093419444964175</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.198965846339733</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2939561542929968</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003752631756931878</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
